--- a/patient_data/patient_56.xlsx
+++ b/patient_data/patient_56.xlsx
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -803,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -957,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1004,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1081,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1158,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1312,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1975,16 +1975,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
